--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.346233</v>
+        <v>0.000484</v>
       </c>
       <c r="N2">
-        <v>7.038699</v>
+        <v>0.001452</v>
       </c>
       <c r="O2">
-        <v>0.9997937544237332</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9997937544237333</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>478.1192664358674</v>
+        <v>0.040166037604</v>
       </c>
       <c r="R2">
-        <v>4303.073397922806</v>
+        <v>0.361494338436</v>
       </c>
       <c r="S2">
-        <v>0.6665952485166834</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="T2">
-        <v>0.6665952485166836</v>
+        <v>0.4489504115427952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>189.421768</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.001452</v>
       </c>
       <c r="O3">
-        <v>0.000206245576266759</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.0002062455762667591</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.09863032569866667</v>
+        <v>0.03056004523733333</v>
       </c>
       <c r="R3">
-        <v>0.8876729312880001</v>
+        <v>0.275040407136</v>
       </c>
       <c r="S3">
-        <v>0.000137510682136887</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="T3">
-        <v>0.000137510682136887</v>
+        <v>0.3415807409566563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.14058933333334</v>
+        <v>38.719942</v>
       </c>
       <c r="H4">
-        <v>189.421768</v>
+        <v>116.159826</v>
       </c>
       <c r="I4">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J4">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.346233</v>
+        <v>0.000484</v>
       </c>
       <c r="N4">
-        <v>7.038699</v>
+        <v>0.001452</v>
       </c>
       <c r="O4">
-        <v>0.9997937544237332</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9997937544237333</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>148.1425343333147</v>
+        <v>0.018740451928</v>
       </c>
       <c r="R4">
-        <v>1333.282808999832</v>
+        <v>0.168664067352</v>
       </c>
       <c r="S4">
-        <v>0.2065407450026974</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="T4">
-        <v>0.2065407450026974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>63.14058933333334</v>
-      </c>
-      <c r="H5">
-        <v>189.421768</v>
-      </c>
-      <c r="I5">
-        <v>0.2065833519051582</v>
-      </c>
-      <c r="J5">
-        <v>0.2065833519051582</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.000484</v>
-      </c>
-      <c r="N5">
-        <v>0.001452</v>
-      </c>
-      <c r="O5">
-        <v>0.000206245576266759</v>
-      </c>
-      <c r="P5">
-        <v>0.0002062455762667591</v>
-      </c>
-      <c r="Q5">
-        <v>0.03056004523733333</v>
-      </c>
-      <c r="R5">
-        <v>0.275040407136</v>
-      </c>
-      <c r="S5">
-        <v>4.260690246079802E-05</v>
-      </c>
-      <c r="T5">
-        <v>4.260690246079803E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>38.719942</v>
-      </c>
-      <c r="H6">
-        <v>116.159826</v>
-      </c>
-      <c r="I6">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J6">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>2.346233</v>
-      </c>
-      <c r="N6">
-        <v>7.038699</v>
-      </c>
-      <c r="O6">
-        <v>0.9997937544237332</v>
-      </c>
-      <c r="P6">
-        <v>0.9997937544237333</v>
-      </c>
-      <c r="Q6">
-        <v>90.84600567848599</v>
-      </c>
-      <c r="R6">
-        <v>817.6140511063739</v>
-      </c>
-      <c r="S6">
-        <v>0.1266577609043523</v>
-      </c>
-      <c r="T6">
-        <v>0.1266577609043523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>38.719942</v>
-      </c>
-      <c r="H7">
-        <v>116.159826</v>
-      </c>
-      <c r="I7">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J7">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.000484</v>
-      </c>
-      <c r="N7">
-        <v>0.001452</v>
-      </c>
-      <c r="O7">
-        <v>0.000206245576266759</v>
-      </c>
-      <c r="P7">
-        <v>0.0002062455762667591</v>
-      </c>
-      <c r="Q7">
-        <v>0.018740451928</v>
-      </c>
-      <c r="R7">
-        <v>0.168664067352</v>
-      </c>
-      <c r="S7">
-        <v>2.612799166907401E-05</v>
-      </c>
-      <c r="T7">
-        <v>2.612799166907401E-05</v>
+        <v>0.2094688475005485</v>
       </c>
     </row>
   </sheetData>
